--- a/Updates/Input data/DigiZag New 30-days (3).xlsx
+++ b/Updates/Input data/DigiZag New 30-days (3).xlsx
@@ -34,6 +34,9 @@
     <t>DZCT</t>
   </si>
   <si>
+    <t>MB485325</t>
+  </si>
+  <si>
     <t>MB484984</t>
   </si>
   <si>
@@ -49,18 +52,18 @@
     <t>MB484178</t>
   </si>
   <si>
+    <t>MB482319</t>
+  </si>
+  <si>
+    <t>MB482292</t>
+  </si>
+  <si>
     <t>DZ77</t>
   </si>
   <si>
     <t>MB482234</t>
   </si>
   <si>
-    <t>MB482292</t>
-  </si>
-  <si>
-    <t>MB482319</t>
-  </si>
-  <si>
     <t>MB481818</t>
   </si>
   <si>
@@ -70,33 +73,33 @@
     <t>MB481115</t>
   </si>
   <si>
+    <t>MB480856</t>
+  </si>
+  <si>
+    <t>DZ65</t>
+  </si>
+  <si>
+    <t>MB480838</t>
+  </si>
+  <si>
     <t>MB480981</t>
   </si>
   <si>
-    <t>DZ65</t>
-  </si>
-  <si>
-    <t>MB480838</t>
-  </si>
-  <si>
-    <t>MB480856</t>
-  </si>
-  <si>
     <t>MB480389</t>
   </si>
   <si>
     <t>MB479700</t>
   </si>
   <si>
+    <t>MB479273</t>
+  </si>
+  <si>
     <t>MB479499</t>
   </si>
   <si>
     <t>MB479458</t>
   </si>
   <si>
-    <t>MB479273</t>
-  </si>
-  <si>
     <t>MB479337</t>
   </si>
   <si>
@@ -121,31 +124,28 @@
     <t>MB477106</t>
   </si>
   <si>
+    <t>MB476915</t>
+  </si>
+  <si>
     <t>MB477051</t>
   </si>
   <si>
-    <t>MB476915</t>
-  </si>
-  <si>
     <t>MB476689</t>
   </si>
   <si>
+    <t>MB476559</t>
+  </si>
+  <si>
     <t>MB476663</t>
   </si>
   <si>
-    <t>MB476559</t>
+    <t>DZ96</t>
+  </si>
+  <si>
+    <t>MB476491</t>
   </si>
   <si>
     <t>MB476437</t>
-  </si>
-  <si>
-    <t>DZ96</t>
-  </si>
-  <si>
-    <t>MB476491</t>
-  </si>
-  <si>
-    <t>MB476271</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
         <v>34.0</v>
       </c>
       <c r="E2" s="3">
-        <v>13254.08</v>
+        <v>13107.38</v>
       </c>
     </row>
     <row r="3">
@@ -449,24 +449,24 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>45922.0</v>
+        <v>45923.0</v>
       </c>
       <c r="D3" s="3">
         <v>1.0</v>
       </c>
       <c r="E3" s="3">
-        <v>267.3</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="2">
-        <v>45921.0</v>
+        <v>45922.0</v>
       </c>
       <c r="D4" s="3">
         <v>1.0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -489,35 +489,35 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="3">
-        <v>178.2</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>45920.0</v>
+        <v>45921.0</v>
       </c>
       <c r="D6" s="3">
         <v>1.0</v>
       </c>
       <c r="E6" s="3">
-        <v>437.4</v>
+        <v>178.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" s="2">
-        <v>45915.0</v>
+        <v>45920.0</v>
       </c>
       <c r="D7" s="3">
         <v>1.0</v>
@@ -528,10 +528,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>45915.0</v>
@@ -540,15 +540,15 @@
         <v>1.0</v>
       </c>
       <c r="E8" s="3">
-        <v>687.6</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
         <v>45915.0</v>
@@ -557,46 +557,46 @@
         <v>1.0</v>
       </c>
       <c r="E9" s="3">
-        <v>267.3</v>
+        <v>687.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>45914.0</v>
+        <v>45915.0</v>
       </c>
       <c r="D10" s="3">
         <v>1.0</v>
       </c>
       <c r="E10" s="3">
-        <v>267.3</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>45912.0</v>
+        <v>45914.0</v>
       </c>
       <c r="D11" s="3">
         <v>1.0</v>
       </c>
       <c r="E11" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
@@ -613,27 +613,27 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>45911.0</v>
+        <v>45912.0</v>
       </c>
       <c r="D13" s="3">
         <v>1.0</v>
       </c>
       <c r="E13" s="3">
-        <v>267.3</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C14" s="2">
         <v>45911.0</v>
@@ -642,12 +642,12 @@
         <v>1.0</v>
       </c>
       <c r="E14" s="3">
-        <v>398.7</v>
+        <v>1081.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
@@ -659,18 +659,18 @@
         <v>1.0</v>
       </c>
       <c r="E15" s="3">
-        <v>1081.8</v>
+        <v>398.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="2">
-        <v>45909.0</v>
+        <v>45911.0</v>
       </c>
       <c r="D16" s="3">
         <v>1.0</v>
@@ -681,13 +681,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="2">
-        <v>45907.0</v>
+        <v>45909.0</v>
       </c>
       <c r="D17" s="3">
         <v>1.0</v>
@@ -698,24 +698,24 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="2">
-        <v>45906.0</v>
+        <v>45907.0</v>
       </c>
       <c r="D18" s="3">
         <v>1.0</v>
       </c>
       <c r="E18" s="3">
-        <v>270.9</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>26</v>
@@ -727,12 +727,12 @@
         <v>1.0</v>
       </c>
       <c r="E19" s="3">
-        <v>563.18</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>27</v>
@@ -744,12 +744,12 @@
         <v>1.0</v>
       </c>
       <c r="E20" s="3">
-        <v>267.3</v>
+        <v>270.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>28</v>
@@ -761,46 +761,46 @@
         <v>1.0</v>
       </c>
       <c r="E21" s="3">
-        <v>267.3</v>
+        <v>563.18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="2">
-        <v>45904.0</v>
+        <v>45906.0</v>
       </c>
       <c r="D22" s="3">
         <v>1.0</v>
       </c>
       <c r="E22" s="3">
-        <v>495.0</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="2">
-        <v>45902.0</v>
+        <v>45904.0</v>
       </c>
       <c r="D23" s="3">
         <v>1.0</v>
       </c>
       <c r="E23" s="3">
-        <v>826.2</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>31</v>
@@ -812,12 +812,12 @@
         <v>1.0</v>
       </c>
       <c r="E24" s="3">
-        <v>267.3</v>
+        <v>826.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>32</v>
@@ -829,46 +829,46 @@
         <v>1.0</v>
       </c>
       <c r="E25" s="3">
-        <v>319.5</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="2">
-        <v>45900.0</v>
+        <v>45902.0</v>
       </c>
       <c r="D26" s="3">
         <v>1.0</v>
       </c>
       <c r="E26" s="3">
-        <v>267.3</v>
+        <v>319.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="2">
-        <v>45899.0</v>
+        <v>45900.0</v>
       </c>
       <c r="D27" s="3">
         <v>1.0</v>
       </c>
       <c r="E27" s="3">
-        <v>297.0</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>35</v>
@@ -885,24 +885,24 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="2">
-        <v>45898.0</v>
+        <v>45899.0</v>
       </c>
       <c r="D29" s="3">
         <v>1.0</v>
       </c>
       <c r="E29" s="3">
-        <v>623.7</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>37</v>
@@ -919,36 +919,36 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="2">
-        <v>45897.0</v>
+        <v>45898.0</v>
       </c>
       <c r="D31" s="3">
         <v>1.0</v>
       </c>
       <c r="E31" s="3">
-        <v>297.0</v>
+        <v>623.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="2">
-        <v>45896.0</v>
+        <v>45897.0</v>
       </c>
       <c r="D32" s="3">
         <v>1.0</v>
       </c>
       <c r="E32" s="3">
-        <v>373.5</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="33">
@@ -970,19 +970,19 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="2">
-        <v>45895.0</v>
+        <v>45896.0</v>
       </c>
       <c r="D34" s="3">
         <v>1.0</v>
       </c>
       <c r="E34" s="3">
-        <v>359.1</v>
+        <v>373.5</v>
       </c>
     </row>
     <row r="35">
@@ -1004,19 +1004,19 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="2">
-        <v>45893.0</v>
+        <v>45895.0</v>
       </c>
       <c r="D36" s="3">
         <v>1.0</v>
       </c>
       <c r="E36" s="3">
-        <v>490.5</v>
+        <v>359.1</v>
       </c>
     </row>
     <row r="37">
